--- a/outputs-r202/o__Veillonellales.xlsx
+++ b/outputs-r202/o__Veillonellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -574,6 +594,11 @@
         <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>f__Dialisteraceae</t>
         </is>

--- a/outputs-r202/o__Veillonellales.xlsx
+++ b/outputs-r202/o__Veillonellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,23 +479,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG411.fasta</t>
+          <t>RUG005.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5104581125911264</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4895418874084089</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.324019000462824e-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.324019000462823e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5104581125911264</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,101 +504,133 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae(reject)</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG618.fasta</t>
+          <t>RUG411.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.4285667112898656</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.1904777629033782</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.1904777629033781</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.1904777629033781</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.4285667112898656</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG781.fasta</t>
+          <t>RUG618.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5104581125911264</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4895418874084089</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.324019000462824e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.324019000462823e-13</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5104581125911264</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae(reject)</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>hRUG872.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>hRUG885.fasta</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>f__Dialisteraceae</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>f__Dialisteraceae</t>
         </is>
